--- a/tenmaLy/case/integralStore.xlsx
+++ b/tenmaLy/case/integralStore.xlsx
@@ -5,27 +5,32 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyy\PycharmProjects\TenmaLy\tenmaLy\platformsData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyy\PycharmProjects\TenmaLy\tenmaLy\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6553D6D0-82B7-4F64-A91F-2EB7F775FE39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93ABF3C-0449-4077-AF8A-8DEB28E068CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,23 +72,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/tianma_vote/Activity/activityList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"page":"1","size":"10","id":"1"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/x-www-form-urlencoded"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>头部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>" "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://review.360tianma.com</t>
+  </si>
+  <si>
+    <t>"Content-Type":"application/x-www-form-urlencoded"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tianma_vote/Activity/activityList?page=1&amp;size=10&amp;di=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +135,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,12 +163,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -434,98 +452,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="56.125" customWidth="1"/>
-    <col min="5" max="5" width="38.5" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="4" max="5" width="56.125" customWidth="1"/>
+    <col min="6" max="6" width="38.5" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>11111</v>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/tenmaLy/case/integralStore.xlsx
+++ b/tenmaLy/case/integralStore.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyy\PycharmProjects\TenmaLy\tenmaLy\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93ABF3C-0449-4077-AF8A-8DEB28E068CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF8A91A-543D-4AA8-BB98-5F4386FA3B4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="byCode" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,41 +30,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实参</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/points/Shops/shopslist?shop_id=1&amp;search=1&amp;status=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期结果</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+  <si>
+    <t>domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caseID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pathName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jaeger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"award_id":"1","page":"10","size":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/prize_draw/Awardlog/awardLogList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取中奖商品修改记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取记录，无token，获取失败。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -72,26 +100,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>头部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>" "</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>域名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://review.360tianma.com</t>
-  </si>
-  <si>
-    <t>"Content-Type":"application/x-www-form-urlencoded"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tianma_vote/Activity/activityList?page=1&amp;size=10&amp;di=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect_status_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取记录，无参数传入，获取失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取记录，token错误，获取失败。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/x-www-form-urlencoded"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/x-www-form-urlencoded","token":"dfgdsfgdfgdsgdsgf"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/x-www-form-urlencoded","token":"KJSFHDKSHFUWEOW1423"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,29 +150,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="微软雅黑"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF212121"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -163,15 +187,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -452,110 +479,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.625" customWidth="1"/>
-    <col min="4" max="5" width="56.125" customWidth="1"/>
-    <col min="6" max="6" width="38.5" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="23.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="60.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="49" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3">
+        <v>200</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
+      <c r="J3" s="3">
+        <v>200</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="3">
+        <v>200</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/tenmaLy/case/integralStore.xlsx
+++ b/tenmaLy/case/integralStore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyy\PycharmProjects\TenmaLy\tenmaLy\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF8A91A-543D-4AA8-BB98-5F4386FA3B4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A60AA6-B462-4AC5-A098-831EDA3D579A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>domain</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,15 +116,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"Content-Type":"application/x-www-form-urlencoded"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/x-www-form-urlencoded","token":"dfgdsfgdfgdsgdsgf"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/x-www-form-urlencoded","token":"KJSFHDKSHFUWEOW1423"}</t>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"award_id":"&amp;&amp;","page":"10","size":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/x-www-form-urlencoded","user-agent":"Mozilla/5.0 (iPhone; CPU iPhone OS 8_3 like Mac OS X) AppleWebKit/600.1.4 (KHTML, like Gecko) Version/8.0 Mobile/12F70 Safari/600.1.4"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/x-www-form-urlencoded","token":"KJSFHDKSHFUWEOW1423","user-agent":"Mozilla/5.0 (iPhone; CPU iPhone OS 8_3 like Mac OS X) AppleWebKit/600.1.4 (KHTML, like Gecko) Version/8.0 Mobile/12F70 Safari/600.1.4"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/x-www-form-urlencoded","token":"dfgdsfgdfgdsgdsgf","user-agent":"Mozilla/5.0 (iPhone; CPU iPhone OS 8_3 like Mac OS X) AppleWebKit/600.1.4 (KHTML, like Gecko) Version/8.0 Mobile/12F70 Safari/600.1.4"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -198,7 +206,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -479,21 +495,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="23.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="41.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="32.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="60.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="60.75" style="4" customWidth="1"/>
     <col min="8" max="8" width="49" style="1" customWidth="1"/>
     <col min="9" max="9" width="29.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="26.5" style="1" customWidth="1"/>
@@ -535,11 +551,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="54" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -554,8 +570,8 @@
       <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
@@ -567,11 +583,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -581,13 +597,13 @@
         <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>11</v>
@@ -599,11 +615,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -618,8 +634,8 @@
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
+      <c r="G4" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>12</v>
@@ -628,6 +644,38 @@
         <v>200</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="3">
+        <v>200</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/tenmaLy/case/integralStore.xlsx
+++ b/tenmaLy/case/integralStore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyy\PycharmProjects\TenmaLy\tenmaLy\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A60AA6-B462-4AC5-A098-831EDA3D579A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F6A5F0-FC60-4D25-8D14-BCD7CDB1BBEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/tenmaLy/case/integralStore.xlsx
+++ b/tenmaLy/case/integralStore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyy\PycharmProjects\TenmaLy\tenmaLy\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F6A5F0-FC60-4D25-8D14-BCD7CDB1BBEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD887EB-5D6B-4E86-84A2-E2BC95D77B6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
